--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2193,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2228,28 +2240,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2286,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2626,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2719,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2886,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2921,28 +2933,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2979,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3088,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3123,28 +3135,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3181,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3377,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3424,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3470,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3596,10 +3608,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3643,28 +3655,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3689,28 +3701,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3839,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3874,28 +3886,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3932,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4041,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4088,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4134,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4231,10 +4243,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4278,28 +4290,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4324,28 +4336,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4462,10 +4474,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4509,28 +4521,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4555,28 +4567,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4664,10 +4676,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4711,28 +4723,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4757,28 +4769,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4866,10 +4878,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4913,28 +4925,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4959,28 +4971,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5051,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5086,28 +5098,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5144,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5282,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5317,28 +5329,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5375,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5703,10 +5715,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5750,28 +5762,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5796,28 +5808,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5905,10 +5917,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5952,28 +5964,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5998,28 +6010,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6078,10 +6090,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6125,28 +6137,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6171,28 +6183,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6280,10 +6292,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6327,28 +6339,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6373,28 +6385,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6465,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6500,28 +6512,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6558,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6638,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6685,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6731,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6898,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6933,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6991,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7117,10 +7129,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7164,28 +7176,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7210,28 +7222,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7290,10 +7302,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7337,28 +7349,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7383,28 +7395,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7463,10 +7475,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7510,28 +7522,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7556,28 +7568,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7665,10 +7677,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7712,28 +7724,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7758,28 +7770,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8011,10 +8023,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8058,28 +8070,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8104,28 +8116,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8184,10 +8196,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8231,28 +8243,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8277,28 +8289,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8357,10 +8369,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8404,28 +8416,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8450,28 +8462,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8530,10 +8542,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8577,28 +8589,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8623,28 +8635,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8703,10 +8715,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8750,28 +8762,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8796,28 +8808,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8934,10 +8946,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8981,28 +8993,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9027,28 +9039,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9107,10 +9119,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
